--- a/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_LV1.xlsx
+++ b/DnaRepairSpreadsheetParser/test/exampleData/minAssayAnnotationSpreadsheets/Broad Institute_LV1.xlsx
@@ -32,7 +32,7 @@
     <definedName name="readout_type">'Assay Definition'!#REF!</definedName>
     <definedName name="species_name">'Assay Definition'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" concurrentCalc="0"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2223" uniqueCount="399">
   <si>
     <t>CID:54454</t>
   </si>
@@ -1243,6 +1243,9 @@
   </si>
   <si>
     <t>CID:11957499</t>
+  </si>
+  <si>
+    <t>assay component role</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1712,9 @@
   <sheetPr codeName="Sheet1" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:BH149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1860,7 +1865,7 @@
         <v>268</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>269</v>
